--- a/swag labs testcases.xlsx
+++ b/swag labs testcases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\SBPInternship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A84FB7BD-8F9F-4564-AF85-544F55182851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{41E9A2A2-E78E-44CC-9DA1-9F735079B0AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{85FD770A-0E61-454C-A16B-5B17B1CB1F03}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="70">
   <si>
     <t>Pass/Fail Result Text</t>
   </si>
@@ -216,13 +216,54 @@
   </si>
   <si>
     <t>All buttons are working properly</t>
+  </si>
+  <si>
+    <t>First and last name field validation</t>
+  </si>
+  <si>
+    <t>Verify that the first and last name field doesnot accept digits and special characters</t>
+  </si>
+  <si>
+    <t>1.Navigate to checkout page                                            2.In the first and last name field enter input like (john,alice)                      3.Enter valid input in the postal code field                        5.Press continue button</t>
+  </si>
+  <si>
+    <t>User must be logged in                      aleast one product is added in the cart</t>
+  </si>
+  <si>
+    <t>The system should not allow the form to proceed.
+An error message like “First Name is invalid”  should appear.</t>
+  </si>
+  <si>
+    <t>Postal code field validation</t>
+  </si>
+  <si>
+    <t>Verify that the postal code field doesnot accept character, special character and digits more than 5</t>
+  </si>
+  <si>
+    <t>1.Navigate to checkout page                                            2.Enter valid first and last name in the input field                              3.Enter valid input in the postal code field  like (4500)                         4.Press continue button</t>
+  </si>
+  <si>
+    <t>The system should not allow the form to proceed.
+An error message like “postal code  is invalid”  should appear.</t>
+  </si>
+  <si>
+    <t>Verify that the cart icon doesnot proceed to checkout when the cart is empty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The system should not allow to proceed to checkout when the cart is empty  it should not show the checkout button and further processing of checkout </t>
+  </si>
+  <si>
+    <t>Cart icon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Login successfully     2.Press the cart icon from the top right corner                                   </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,20 +360,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="9"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFC00000"/>
+      <color theme="0"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -348,6 +382,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,10 +463,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -761,7 +807,7 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1043,8 +1089,8 @@
       <c r="G12" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="H12" s="15" t="s">
-        <v>19</v>
+      <c r="H12" s="14" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
@@ -1100,37 +1146,85 @@
       </c>
       <c r="I14" s="13"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
+    <row r="15" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="13">
+        <v>9</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>19</v>
+      </c>
       <c r="I15" s="13"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
+    <row r="16" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+      <c r="A16" s="13">
+        <v>10</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>19</v>
+      </c>
       <c r="I16" s="13"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
+    <row r="17" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="13">
+        <v>11</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>19</v>
+      </c>
       <c r="I17" s="13"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
